--- a/neighborhoodsummaryclean2017-09-25.xlsx
+++ b/neighborhoodsummaryclean2017-09-25.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hata/Documents/Boston-311-Services/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12570" windowHeight="11085" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12580" windowHeight="11080" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Allston" sheetId="1" r:id="rId1"/>
@@ -31,9 +36,15 @@
     <sheet name="West End" sheetId="21" r:id="rId22"/>
     <sheet name="West Roxbury" sheetId="22" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -273,26 +284,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -301,7 +312,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -309,17 +320,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -329,7 +340,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -340,31 +351,31 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -372,45 +383,45 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -418,25 +429,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,7 +936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -935,18 +946,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -985,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1024,7 +1035,7 @@
         <v>19761</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1056,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1105,7 +1116,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1176,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1236,7 @@
         <v>12741</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1296,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1345,7 +1356,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1405,7 +1416,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1426,7 +1437,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1483,7 +1494,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1540,7 +1551,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1597,7 +1608,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1665,7 @@
         <v>6186</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1675,7 +1686,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1732,7 +1743,7 @@
         <v>5646</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +1764,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1813,7 +1824,7 @@
         <v>11318</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1873,7 +1884,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1929,7 +1940,7 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1985,7 +1996,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2045,7 +2056,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -2066,7 +2077,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2123,7 +2134,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2180,7 +2191,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -2201,7 +2212,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -2240,7 +2251,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2300,7 +2311,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2360,7 +2371,7 @@
         <v>5708</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -2379,12 +2390,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2408,16 +2419,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>37</v>
       </c>
@@ -2456,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2495,7 +2506,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2516,7 +2527,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2576,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2636,7 +2647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2696,7 +2707,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2756,7 +2767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2816,7 +2827,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2876,7 +2887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -2897,7 +2908,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2954,7 +2965,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3011,7 +3022,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3068,7 +3079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3125,7 +3136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -3146,7 +3157,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3203,7 +3214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -3224,7 +3235,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3284,7 +3295,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3344,7 +3355,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3400,7 +3411,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3456,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3516,7 +3527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -3537,7 +3548,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -3594,7 +3605,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3651,7 +3662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -3672,7 +3683,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -3711,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -3767,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3823,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -3842,12 +3853,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -3870,16 +3881,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>38</v>
       </c>
@@ -3918,7 +3929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3957,7 +3968,7 @@
         <v>35585</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3978,7 +3989,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4038,7 +4049,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -4098,7 +4109,7 @@
         <v>4805</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -4158,7 +4169,7 @@
         <v>7464</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -4218,7 +4229,7 @@
         <v>10142</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -4278,7 +4289,7 @@
         <v>4525</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4338,7 +4349,7 @@
         <v>4643</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -4359,7 +4370,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -4416,7 +4427,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4473,7 +4484,7 @@
         <v>7664</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -4530,7 +4541,7 @@
         <v>7387</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4587,7 +4598,7 @@
         <v>6246</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -4608,7 +4619,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -4665,7 +4676,7 @@
         <v>10093</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -4686,7 +4697,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -4746,7 +4757,7 @@
         <v>9226</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -4806,7 +4817,7 @@
         <v>16055</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -4862,7 +4873,7 @@
         <v>8375</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -4918,7 +4929,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -4978,7 +4989,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -4999,7 +5010,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -5056,7 +5067,7 @@
         <v>9265</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -5113,7 +5124,7 @@
         <v>10316</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -5134,7 +5145,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -5173,7 +5184,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -5233,7 +5244,7 @@
         <v>7423</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -5293,7 +5304,7 @@
         <v>4921</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -5312,12 +5323,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -5339,16 +5350,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>39</v>
       </c>
@@ -5387,7 +5398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5426,7 +5437,7 @@
         <v>39240</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5447,7 +5458,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -5507,7 +5518,7 @@
         <v>4126</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -5567,7 +5578,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -5627,7 +5638,7 @@
         <v>13620</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -5687,7 +5698,7 @@
         <v>10085</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -5747,7 +5758,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -5807,7 +5818,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -5828,7 +5839,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -5885,7 +5896,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -5942,7 +5953,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -5999,7 +6010,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6056,7 +6067,7 @@
         <v>18246</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -6077,7 +6088,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -6134,7 +6145,7 @@
         <v>8879</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -6155,7 +6166,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -6215,7 +6226,7 @@
         <v>21291</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -6275,7 +6286,7 @@
         <v>4552</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -6331,7 +6342,7 @@
         <v>9979</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -6387,7 +6398,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -6447,7 +6458,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -6468,7 +6479,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -6525,7 +6536,7 @@
         <v>12219</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -6582,7 +6593,7 @@
         <v>12611</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -6603,7 +6614,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -6642,7 +6653,7 @@
         <v>15853</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -6702,7 +6713,7 @@
         <v>7212</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -6762,7 +6773,7 @@
         <v>8641</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -6781,12 +6792,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -6809,16 +6820,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>40</v>
       </c>
@@ -6857,7 +6868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -6896,7 +6907,7 @@
         <v>5233</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -6917,7 +6928,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -6977,7 +6988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -7037,7 +7048,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -7097,7 +7108,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -7157,7 +7168,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -7217,7 +7228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -7277,7 +7288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -7298,7 +7309,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -7355,7 +7366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -7412,7 +7423,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -7469,7 +7480,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -7526,7 +7537,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -7547,7 +7558,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -7604,7 +7615,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -7625,7 +7636,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -7685,7 +7696,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -7745,7 +7756,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -7801,7 +7812,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -7857,7 +7868,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -7917,7 +7928,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -7938,7 +7949,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -7995,7 +8006,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -8052,7 +8063,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -8073,7 +8084,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -8112,7 +8123,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -8172,7 +8183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -8232,7 +8243,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -8251,12 +8262,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -8279,16 +8290,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>41</v>
       </c>
@@ -8327,7 +8338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -8366,7 +8377,7 @@
         <v>24268</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -8387,7 +8398,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -8447,7 +8458,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -8507,7 +8518,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -8567,7 +8578,7 @@
         <v>5358</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -8627,7 +8638,7 @@
         <v>6887</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -8687,7 +8698,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -8747,7 +8758,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -8768,7 +8779,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -8825,7 +8836,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -8882,7 +8893,7 @@
         <v>5675</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -8939,7 +8950,7 @@
         <v>4890</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -8996,7 +9007,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -9017,7 +9028,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -9074,7 +9085,7 @@
         <v>8566</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -9095,7 +9106,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -9155,7 +9166,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -9215,7 +9226,7 @@
         <v>17891</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -9271,7 +9282,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -9327,7 +9338,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -9387,7 +9398,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -9408,7 +9419,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -9465,7 +9476,7 @@
         <v>6357</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -9522,7 +9533,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -9543,7 +9554,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -9582,7 +9593,7 @@
         <v>8599</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -9642,7 +9653,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -9702,7 +9713,7 @@
         <v>5454</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -9721,12 +9732,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -9749,16 +9760,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>42</v>
       </c>
@@ -9797,7 +9808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -9836,7 +9847,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -9857,7 +9868,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -9917,7 +9928,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -9977,7 +9988,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -10037,7 +10048,7 @@
         <v>7984</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -10097,7 +10108,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -10157,7 +10168,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -10217,7 +10228,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -10238,7 +10249,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -10295,7 +10306,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -10352,7 +10363,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -10409,7 +10420,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -10466,7 +10477,7 @@
         <v>4069</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -10487,7 +10498,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -10544,7 +10555,7 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -10565,7 +10576,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -10625,7 +10636,7 @@
         <v>7787</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -10685,7 +10696,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -10741,7 +10752,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -10797,7 +10808,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -10857,7 +10868,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -10878,7 +10889,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -10935,7 +10946,7 @@
         <v>4666</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -10992,7 +11003,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -11013,7 +11024,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -11052,7 +11063,7 @@
         <v>6153</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -11112,7 +11123,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -11172,7 +11183,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -11191,12 +11202,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -11219,16 +11230,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>43</v>
       </c>
@@ -11267,7 +11278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -11306,7 +11317,7 @@
         <v>9107</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -11327,7 +11338,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -11387,7 +11398,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -11447,7 +11458,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -11507,7 +11518,7 @@
         <v>5365</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -11567,7 +11578,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -11627,7 +11638,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -11687,7 +11698,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -11708,7 +11719,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -11765,7 +11776,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -11822,7 +11833,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -11879,7 +11890,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -11936,7 +11947,7 @@
         <v>5954</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -11957,7 +11968,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -12014,7 +12025,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -12035,7 +12046,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -12095,7 +12106,7 @@
         <v>8270</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -12155,7 +12166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -12211,7 +12222,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -12267,7 +12278,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -12327,7 +12338,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -12348,7 +12359,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -12405,7 +12416,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -12462,7 +12473,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -12483,7 +12494,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -12522,7 +12533,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -12582,7 +12593,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -12642,7 +12653,7 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -12661,12 +12672,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -12689,16 +12700,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>44</v>
       </c>
@@ -12737,7 +12748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -12776,7 +12787,7 @@
         <v>28644</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -12797,7 +12808,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -12857,7 +12868,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -12917,7 +12928,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -12977,7 +12988,7 @@
         <v>6099</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -13037,7 +13048,7 @@
         <v>9069</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -13097,7 +13108,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -13157,7 +13168,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -13178,7 +13189,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -13235,7 +13246,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -13292,7 +13303,7 @@
         <v>4995</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -13349,7 +13360,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -13406,7 +13417,7 @@
         <v>8721</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -13427,7 +13438,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="19"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -13484,7 +13495,7 @@
         <v>7128</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -13505,7 +13516,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -13565,7 +13576,7 @@
         <v>14617</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -13625,7 +13636,7 @@
         <v>6048</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -13681,7 +13692,7 @@
         <v>6483</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -13737,7 +13748,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -13797,7 +13808,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -13818,7 +13829,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="19"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -13875,7 +13886,7 @@
         <v>7829</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -13932,7 +13943,7 @@
         <v>9560</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -13953,7 +13964,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="19"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -13992,7 +14003,7 @@
         <v>11107</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -14052,7 +14063,7 @@
         <v>6178</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -14112,7 +14123,7 @@
         <v>4929</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -14131,12 +14142,12 @@
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -14159,16 +14170,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>45</v>
       </c>
@@ -14207,7 +14218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -14246,7 +14257,7 @@
         <v>51252</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -14267,7 +14278,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -14327,7 +14338,7 @@
         <v>6844</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -14387,7 +14398,7 @@
         <v>7959</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -14447,7 +14458,7 @@
         <v>14228</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -14507,7 +14518,7 @@
         <v>12277</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -14567,7 +14578,7 @@
         <v>4879</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -14627,7 +14638,7 @@
         <v>5065</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -14648,7 +14659,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -14705,7 +14716,7 @@
         <v>7680</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -14762,7 +14773,7 @@
         <v>8766</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -14819,7 +14830,7 @@
         <v>7540</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -14876,7 +14887,7 @@
         <v>6223</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -14897,7 +14908,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -14954,7 +14965,7 @@
         <v>13449</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -14975,7 +14986,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -15035,7 +15046,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -15095,7 +15106,7 @@
         <v>27188</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -15151,7 +15162,7 @@
         <v>14848</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -15207,7 +15218,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -15267,7 +15278,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -15288,7 +15299,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -15345,7 +15356,7 @@
         <v>10804</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -15402,7 +15413,7 @@
         <v>13009</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -15423,7 +15434,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -15462,7 +15473,7 @@
         <v>18877</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -15522,7 +15533,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -15582,7 +15593,7 @@
         <v>15370</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -15601,12 +15612,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -15629,16 +15640,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>47</v>
       </c>
@@ -15677,7 +15688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -15716,7 +15727,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -15737,7 +15748,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -15797,7 +15808,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -15857,7 +15868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -15917,7 +15928,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -15977,7 +15988,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -16037,7 +16048,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -16097,7 +16108,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -16118,7 +16129,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -16175,7 +16186,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -16232,7 +16243,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -16289,7 +16300,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -16346,7 +16357,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -16367,7 +16378,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -16424,7 +16435,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -16445,7 +16456,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -16505,7 +16516,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -16565,7 +16576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -16621,7 +16632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -16677,7 +16688,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -16737,7 +16748,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -16758,7 +16769,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -16815,7 +16826,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -16872,7 +16883,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -16893,7 +16904,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -16932,7 +16943,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -16992,7 +17003,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -17052,7 +17063,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -17071,12 +17082,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -17099,16 +17110,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>29</v>
       </c>
@@ -17147,7 +17158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -17186,7 +17197,7 @@
         <v>17577</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -17207,7 +17218,7 @@
       <c r="T4" s="29"/>
       <c r="U4" s="30"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -17267,7 +17278,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -17327,7 +17338,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -17387,7 +17398,7 @@
         <v>7681</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -17447,7 +17458,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -17507,7 +17518,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -17567,7 +17578,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -17590,7 +17601,7 @@
       <c r="T11" s="29"/>
       <c r="U11" s="30"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -17647,7 +17658,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -17704,7 +17715,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -17761,7 +17772,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -17818,7 +17829,7 @@
         <v>11659</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -17839,7 +17850,7 @@
       <c r="T16" s="29"/>
       <c r="U16" s="30"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -17896,7 +17907,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -17917,7 +17928,7 @@
       <c r="T18" s="29"/>
       <c r="U18" s="30"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -17977,7 +17988,7 @@
         <v>13432</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -18037,7 +18048,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -18093,7 +18104,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -18149,7 +18160,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -18209,7 +18220,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -18230,7 +18241,7 @@
       <c r="T24" s="29"/>
       <c r="U24" s="30"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -18287,7 +18298,7 @@
         <v>5542</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -18344,7 +18355,7 @@
         <v>5988</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -18365,7 +18376,7 @@
       <c r="T27" s="29"/>
       <c r="U27" s="30"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -18404,7 +18415,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -18464,7 +18475,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -18524,7 +18535,7 @@
         <v>6608</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="27"/>
       <c r="C31" s="68"/>
@@ -18543,12 +18554,12 @@
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -18571,16 +18582,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>46</v>
       </c>
@@ -18619,7 +18630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -18658,7 +18669,7 @@
         <v>35660</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -18679,7 +18690,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -18739,7 +18750,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -18799,7 +18810,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -18859,7 +18870,7 @@
         <v>15716</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -18919,7 +18930,7 @@
         <v>8216</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -18979,7 +18990,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -19039,7 +19050,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -19060,7 +19071,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -19117,7 +19128,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -19174,7 +19185,7 @@
         <v>5467</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -19231,7 +19242,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -19288,7 +19299,7 @@
         <v>15622</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -19309,7 +19320,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -19366,7 +19377,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -19387,7 +19398,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -19447,7 +19458,7 @@
         <v>27712</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -19507,7 +19518,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -19563,7 +19574,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -19619,7 +19630,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -19679,7 +19690,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -19700,7 +19711,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -19757,7 +19768,7 @@
         <v>11647</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -19814,7 +19825,7 @@
         <v>11919</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -19835,7 +19846,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -19874,7 +19885,7 @@
         <v>16028</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -19934,7 +19945,7 @@
         <v>5891</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -19994,7 +20005,7 @@
         <v>10137</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -20013,12 +20024,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -20041,22 +20052,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>48</v>
       </c>
@@ -20095,7 +20106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -20134,7 +20145,7 @@
         <v>31601</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -20155,7 +20166,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -20215,7 +20226,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -20275,7 +20286,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -20335,7 +20346,7 @@
         <v>11211</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -20395,7 +20406,7 @@
         <v>8885</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -20455,7 +20466,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -20515,7 +20526,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -20536,7 +20547,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -20593,7 +20604,7 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -20650,7 +20661,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -20707,7 +20718,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -20764,7 +20775,7 @@
         <v>16045</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -20785,7 +20796,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -20842,7 +20853,7 @@
         <v>7076</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -20863,7 +20874,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -20923,7 +20934,7 @@
         <v>17425</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -20983,7 +20994,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -21039,7 +21050,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -21095,7 +21106,7 @@
         <v>5184</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -21155,7 +21166,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -21176,7 +21187,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -21233,7 +21244,7 @@
         <v>10655</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -21290,7 +21301,7 @@
         <v>9245</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -21311,7 +21322,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -21350,7 +21361,7 @@
         <v>15778</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -21410,7 +21421,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -21470,7 +21481,7 @@
         <v>9562</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="81"/>
@@ -21489,15 +21500,15 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I32" s="88"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -21520,31 +21531,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>49</v>
       </c>
@@ -21583,7 +21594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -21622,7 +21633,7 @@
         <v>5945</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -21643,7 +21654,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -21703,7 +21714,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -21763,7 +21774,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -21823,7 +21834,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -21883,7 +21894,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -21943,7 +21954,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -22003,7 +22014,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -22024,7 +22035,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -22081,7 +22092,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -22138,7 +22149,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -22195,7 +22206,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -22252,7 +22263,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -22273,7 +22284,7 @@
       <c r="T16" s="6"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -22330,7 +22341,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -22351,7 +22362,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -22411,7 +22422,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -22471,7 +22482,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -22527,7 +22538,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -22583,7 +22594,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -22643,7 +22654,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -22664,7 +22675,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -22721,7 +22732,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -22778,7 +22789,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -22799,7 +22810,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -22838,7 +22849,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -22898,7 +22909,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -22958,12 +22969,12 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -22986,30 +22997,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>50</v>
       </c>
@@ -23048,7 +23059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -23087,7 +23098,7 @@
         <v>32795</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -23108,7 +23119,7 @@
       <c r="T4" s="12"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -23168,7 +23179,7 @@
         <v>4209</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -23228,7 +23239,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -23288,7 +23299,7 @@
         <v>5420</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -23348,7 +23359,7 @@
         <v>9884</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -23408,7 +23419,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -23468,7 +23479,7 @@
         <v>5712</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -23489,7 +23500,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -23546,7 +23557,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -23603,7 +23614,7 @@
         <v>5139</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -23660,7 +23671,7 @@
         <v>4985</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -23717,7 +23728,7 @@
         <v>12601</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -23738,7 +23749,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -23795,7 +23806,7 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -23816,7 +23827,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -23876,7 +23887,7 @@
         <v>24056</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -23936,7 +23947,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -23992,7 +24003,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -24048,7 +24059,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -24108,7 +24119,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -24129,7 +24140,7 @@
       <c r="T24" s="12"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -24186,7 +24197,7 @@
         <v>8962</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -24243,7 +24254,7 @@
         <v>9168</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -24264,7 +24275,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -24303,7 +24314,7 @@
         <v>13367</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -24363,7 +24374,7 @@
         <v>8513</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -24423,12 +24434,12 @@
         <v>4854</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -24451,16 +24462,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>30</v>
       </c>
@@ -24499,7 +24510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -24538,7 +24549,7 @@
         <v>9305</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -24559,7 +24570,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -24619,7 +24630,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -24679,7 +24690,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -24739,7 +24750,7 @@
         <v>4909</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -24799,7 +24810,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -24859,7 +24870,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -24919,7 +24930,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -24940,7 +24951,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -24997,7 +25008,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -25054,7 +25065,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -25111,7 +25122,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -25168,7 +25179,7 @@
         <v>6546</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -25189,7 +25200,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -25246,7 +25257,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -25267,7 +25278,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -25327,7 +25338,7 @@
         <v>8118</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -25387,7 +25398,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -25443,7 +25454,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -25499,7 +25510,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -25559,7 +25570,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -25580,7 +25591,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -25637,7 +25648,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -25694,7 +25705,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -25715,7 +25726,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -25754,7 +25765,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -25814,7 +25825,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -25874,7 +25885,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -25893,12 +25904,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -25921,16 +25932,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>31</v>
       </c>
@@ -25969,7 +25980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -26008,7 +26019,7 @@
         <v>47768</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -26029,7 +26040,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -26089,7 +26100,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -26149,7 +26160,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -26209,7 +26220,7 @@
         <v>25485</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -26269,7 +26280,7 @@
         <v>7238</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -26329,7 +26340,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -26389,7 +26400,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -26410,7 +26421,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -26467,7 +26478,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -26524,7 +26535,7 @@
         <v>4637</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -26582,7 +26593,7 @@
         <v>4495</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -26639,7 +26650,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -26660,7 +26671,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -26717,7 +26728,7 @@
         <v>11496</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -26738,7 +26749,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -26798,7 +26809,7 @@
         <v>31946</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -26858,7 +26869,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -26914,7 +26925,7 @@
         <v>4983</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -26970,7 +26981,7 @@
         <v>7352</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -27030,7 +27041,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -27051,7 +27062,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -27108,7 +27119,7 @@
         <v>14052</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -27165,7 +27176,7 @@
         <v>14773</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -27186,7 +27197,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -27225,7 +27236,7 @@
         <v>20588</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -27285,7 +27296,7 @@
         <v>4627</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -27345,7 +27356,7 @@
         <v>15961</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -27364,12 +27375,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -27392,16 +27403,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>32</v>
       </c>
@@ -27440,7 +27451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -27479,7 +27490,7 @@
         <v>18058</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -27500,7 +27511,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -27560,7 +27571,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -27620,7 +27631,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -27680,7 +27691,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -27740,7 +27751,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -27800,7 +27811,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -27860,7 +27871,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -27881,7 +27892,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -27938,7 +27949,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -27995,7 +28006,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -28052,7 +28063,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -28109,7 +28120,7 @@
         <v>8367</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -28130,7 +28141,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -28187,7 +28198,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -28208,7 +28219,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -28268,7 +28279,7 @@
         <v>12575</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -28328,7 +28339,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -28384,7 +28395,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -28440,7 +28451,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -28500,7 +28511,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -28521,7 +28532,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -28578,7 +28589,7 @@
         <v>5475</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -28635,7 +28646,7 @@
         <v>5718</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -28656,7 +28667,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -28695,7 +28706,7 @@
         <v>8457</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -28755,7 +28766,7 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -28815,7 +28826,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -28834,12 +28845,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -28862,16 +28873,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>33</v>
       </c>
@@ -28910,7 +28921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -28949,7 +28960,7 @@
         <v>124489</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -28970,7 +28981,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -29030,7 +29041,7 @@
         <v>15841</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -29090,7 +29101,7 @@
         <v>16428</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -29150,7 +29161,7 @@
         <v>33342</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -29210,7 +29221,7 @@
         <v>33529</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -29270,7 +29281,7 @@
         <v>13470</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -29330,7 +29341,7 @@
         <v>11879</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -29351,7 +29362,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -29408,7 +29419,7 @@
         <v>17202</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -29465,7 +29476,7 @@
         <v>24991</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -29522,7 +29533,7 @@
         <v>19632</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -29579,7 +29590,7 @@
         <v>20203</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -29600,7 +29611,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -29657,7 +29668,7 @@
         <v>41685</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -29678,7 +29689,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -29738,7 +29749,7 @@
         <v>27479</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -29798,7 +29809,7 @@
         <v>54952</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -29854,7 +29865,7 @@
         <v>20330</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -29910,7 +29921,7 @@
         <v>13234</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -29970,7 +29981,7 @@
         <v>8494</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -29991,7 +30002,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -30048,7 +30059,7 @@
         <v>34233</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -30105,7 +30116,7 @@
         <v>33871</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -30126,7 +30137,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -30165,7 +30176,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -30225,7 +30236,7 @@
         <v>14667</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -30285,7 +30296,7 @@
         <v>28625</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -30304,12 +30315,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -30332,16 +30343,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>34</v>
       </c>
@@ -30380,7 +30391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -30419,7 +30430,7 @@
         <v>16903</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -30440,7 +30451,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -30500,7 +30511,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -30560,7 +30571,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -30620,7 +30631,7 @@
         <v>5647</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -30680,7 +30691,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -30740,7 +30751,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -30800,7 +30811,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -30821,7 +30832,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -30878,7 +30889,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -30935,7 +30946,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -30992,7 +31003,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -31049,7 +31060,7 @@
         <v>6677</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -31070,7 +31081,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -31127,7 +31138,7 @@
         <v>5669</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -31148,7 +31159,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -31208,7 +31219,7 @@
         <v>9506</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -31268,7 +31279,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -31324,7 +31335,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -31380,7 +31391,7 @@
         <v>5191</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -31440,7 +31451,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -31461,7 +31472,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -31518,7 +31529,7 @@
         <v>5194</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -31575,7 +31586,7 @@
         <v>4692</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -31596,7 +31607,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -31635,7 +31646,7 @@
         <v>7198</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -31695,7 +31706,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -31755,7 +31766,7 @@
         <v>5197</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -31774,12 +31785,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -31802,16 +31813,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>35</v>
       </c>
@@ -31850,7 +31861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -31889,7 +31900,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -31910,7 +31921,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -31970,7 +31981,7 @@
         <v>5778</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -32030,7 +32041,7 @@
         <v>4237</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -32090,7 +32101,7 @@
         <v>13361</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -32150,7 +32161,7 @@
         <v>13917</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -32210,7 +32221,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -32270,7 +32281,7 @@
         <v>3951</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -32307,7 +32318,7 @@
         <v>31457</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -32364,7 +32375,7 @@
         <v>10114</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -32421,7 +32432,7 @@
         <v>9744</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -32478,7 +32489,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -32535,7 +32546,7 @@
         <v>6449</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -32556,7 +32567,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -32613,7 +32624,7 @@
         <v>22732</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -32634,7 +32645,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -32694,7 +32705,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -32754,7 +32765,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -32810,7 +32821,7 @@
         <v>26063</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -32866,7 +32877,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -32926,7 +32937,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -32947,7 +32958,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -33004,7 +33015,7 @@
         <v>16140</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -33061,7 +33072,7 @@
         <v>11596</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -33082,7 +33093,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -33121,7 +33132,7 @@
         <v>15820</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -33181,7 +33192,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -33241,7 +33252,7 @@
         <v>11376</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -33260,7 +33271,7 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -33277,12 +33288,12 @@
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -33305,16 +33316,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>36</v>
       </c>
@@ -33353,7 +33364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -33392,7 +33403,7 @@
         <v>32210</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -33413,7 +33424,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -33473,7 +33484,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -33533,7 +33544,7 @@
         <v>8582</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -33593,7 +33604,7 @@
         <v>17575</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -33653,7 +33664,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -33713,7 +33724,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -33773,7 +33784,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -33794,7 +33805,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -33851,7 +33862,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -33908,7 +33919,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -33965,7 +33976,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -34022,7 +34033,7 @@
         <v>9087</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -34043,7 +34054,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -34100,7 +34111,7 @@
         <v>8101</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -34121,7 +34132,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -34181,7 +34192,7 @@
         <v>19777</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -34241,7 +34252,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -34297,7 +34308,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -34353,7 +34364,7 @@
         <v>6029</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -34413,7 +34424,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -34434,7 +34445,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -34491,7 +34502,7 @@
         <v>8106</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -34548,7 +34559,7 @@
         <v>9660</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -34569,7 +34580,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -34608,7 +34619,7 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -34668,7 +34679,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -34728,7 +34739,7 @@
         <v>9881</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="16"/>
       <c r="C31" s="68"/>
@@ -34747,12 +34758,12 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
